--- a/excel/2025-05-17.xlsx
+++ b/excel/2025-05-17.xlsx
@@ -4,14 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17140"/>
+    <workbookView windowHeight="17140" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="技术部" sheetId="1" r:id="rId1"/>
-    <sheet name="运维部" sheetId="2" r:id="rId2"/>
-    <sheet name="安全部" sheetId="3" r:id="rId3"/>
-    <sheet name="产品部" sheetId="4" r:id="rId4"/>
-    <sheet name="客服部" sheetId="5" r:id="rId5"/>
+    <sheet name="选矿" sheetId="1" r:id="rId1"/>
+    <sheet name="洗矿" sheetId="2" r:id="rId2"/>
+    <sheet name="采矿" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>user</t>
   </si>
@@ -145,42 +143,6 @@
   </si>
   <si>
     <t>cxxzzz</t>
-  </si>
-  <si>
-    <t>prod1</t>
-  </si>
-  <si>
-    <t>ddsa</t>
-  </si>
-  <si>
-    <t>prod2</t>
-  </si>
-  <si>
-    <t>cxzcx</t>
-  </si>
-  <si>
-    <t>prod3</t>
-  </si>
-  <si>
-    <t>ewqds</t>
-  </si>
-  <si>
-    <t>cs1</t>
-  </si>
-  <si>
-    <t>cs2</t>
-  </si>
-  <si>
-    <t>cs3</t>
-  </si>
-  <si>
-    <t>cs4</t>
-  </si>
-  <si>
-    <t>cs5</t>
-  </si>
-  <si>
-    <t>cs6</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1351,7 +1313,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1479,8 +1441,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1573,192 +1535,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>321</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>32111</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
-        <v>2333</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>32133</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/excel/2025-05-17.xlsx
+++ b/excel/2025-05-17.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17140" activeTab="2"/>
+    <workbookView windowHeight="17140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="选矿" sheetId="1" r:id="rId1"/>
     <sheet name="洗矿" sheetId="2" r:id="rId2"/>
     <sheet name="采矿" sheetId="3" r:id="rId3"/>
+    <sheet name="综合办" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>user</t>
   </si>
@@ -143,6 +144,27 @@
   </si>
   <si>
     <t>cxxzzz</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>6506BE24</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>lds</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -155,7 +177,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +188,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -640,148 +655,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,8 +1456,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1535,4 +1550,77 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>